--- a/Game Ideas.xlsx
+++ b/Game Ideas.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="89">
   <si>
     <t>Game ideas</t>
   </si>
@@ -352,6 +352,66 @@
   </si>
   <si>
     <t>10 sets of word flesh on the screen one by one, and user need to pick them at the end to test and excercie their short term memorization skills</t>
+  </si>
+  <si>
+    <t>life journey</t>
+  </si>
+  <si>
+    <t>user can enter a thing that is significant to them and there will be a mind map showing the different task the user had done in the app</t>
+  </si>
+  <si>
+    <t>object guessing</t>
+  </si>
+  <si>
+    <t>there is a question asking, and user need to click on the right answer in the mutiple choice answers provided, every false answer will result a false animation</t>
+  </si>
+  <si>
+    <t>a life time as a plant</t>
+  </si>
+  <si>
+    <t>the user start the game by the form of seed, and they need to complete certain tasks to obtain food and water they need to survive.</t>
+  </si>
+  <si>
+    <t>information cards</t>
+  </si>
+  <si>
+    <t>each time user enters the app, there will be a piece of information on the card, and the users can swip up and down for random informations to kill time</t>
+  </si>
+  <si>
+    <t>fat losing</t>
+  </si>
+  <si>
+    <t>user is an over weight person, he/she has encounter different situation and different choices will cause their weight losing journey succussful or failed</t>
+  </si>
+  <si>
+    <t>Water drinking app</t>
+  </si>
+  <si>
+    <t>A app track user's water consumption of the day, unlike the tipical app, user need to preset the app of the valume of  their own container and user just need to click add button on the to track how much water they consume.  The app will present a record cup ➕1</t>
+  </si>
+  <si>
+    <t>intermediate fasting</t>
+  </si>
+  <si>
+    <t>Intermediate fasting is a kind of living style where people fasting for at least 16 hours of day, this app will track how much time the user fasting for a day. The user can also use the timer in the app to show what time can they start eating</t>
+  </si>
+  <si>
+    <t>balance ball</t>
+  </si>
+  <si>
+    <t>a 3d game that a ball is on the plate, the user need to lift the plate to the assigned place. when the ball falls, the game end</t>
+  </si>
+  <si>
+    <t>text game</t>
+  </si>
+  <si>
+    <t>give user a string, they need to find the word hidden in the string, the more they can identify, the more point they earn. (or have a time limit)</t>
+  </si>
+  <si>
+    <t>shape game</t>
+  </si>
+  <si>
+    <t>give user a shape that has multiple triangle, ask user how many triangle is in the shape</t>
   </si>
 </sst>
 </file>
@@ -1014,8 +1074,141 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
+      <c r="A35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="7">
+        <v>44244.0</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="5">
+        <v>44244.0</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="3">
+        <v>44244.0</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="5">
+        <v>44244.0</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="5">
+        <v>44244.0</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="5">
+        <v>44245.0</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="5">
+        <v>44245.0</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="5">
+        <v>44245.0</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="5">
+        <v>44245.0</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="5">
+        <v>44245.0</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" s="8"/>
+    </row>
+    <row r="46">
+      <c r="C46" s="8"/>
+    </row>
+    <row r="47">
+      <c r="C47" s="8"/>
+    </row>
+    <row r="48">
+      <c r="C48" s="8"/>
+    </row>
+    <row r="49">
+      <c r="C49" s="8"/>
+    </row>
+    <row r="50">
+      <c r="C50" s="8"/>
+    </row>
+    <row r="51">
+      <c r="C51" s="8"/>
+    </row>
+    <row r="52">
+      <c r="C52" s="8"/>
+    </row>
+    <row r="53">
+      <c r="C53" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Game Ideas.xlsx
+++ b/Game Ideas.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
   <si>
     <t>Game ideas</t>
   </si>
@@ -413,13 +413,74 @@
   <si>
     <t>give user a shape that has multiple triangle, ask user how many triangle is in the shape</t>
   </si>
+  <si>
+    <t>word counting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">good habit choice </t>
+  </si>
+  <si>
+    <t>It is a 2d game that user needs to move to get the healthy good in order to proceed to the next level, have a bunch of unhealthy product and one healthy product by not telling the user which is good, which is bad. the user need to figure out themselve.</t>
+  </si>
+  <si>
+    <t>sunscreen recorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user set the condition of the day or uv index. the app will pop out notification to remind user to apply sun screen </t>
+  </si>
+  <si>
+    <t>synonyms</t>
+  </si>
+  <si>
+    <t>there are 10 cards with 5 sets of synonyms. Identify them and use line to connect them to make them disappear</t>
+  </si>
+  <si>
+    <t>Stop playing video game</t>
+  </si>
+  <si>
+    <t>a stop watch progresses the time you have stoped playing video games gradually. The first time is 1 mins, the second time is 2 mins, the third time is 5 mins and keep going</t>
+  </si>
+  <si>
+    <t>Reshipment</t>
+  </si>
+  <si>
+    <t>An app helps people in same region who needs to buy goods to help support their idols or singer from foreigh country. It decrease the cost of only person buying the goods. There are group leader from each region, everytime when a new goods is coming out, the creator can create this buying task and assign each group leader to forward the goods to the assigned area</t>
+  </si>
+  <si>
+    <t>recycling bags</t>
+  </si>
+  <si>
+    <t>A app that tells user the tips of recycling, for example having graphic to show people the object that is not recycable, recycble and organic waste, and or some common mistake that people make about certain type of object that is recycble or not</t>
+  </si>
+  <si>
+    <t>recycling items</t>
+  </si>
+  <si>
+    <t>there are graphic of garbages on the table, user need to click and drag them to the correct recycling bins in order to proceed to next level. (apple skin, mik box, battery, tree trunk ect.)</t>
+  </si>
+  <si>
+    <t>Timer</t>
+  </si>
+  <si>
+    <t>this is a app to test user about their time sensibitiliy. There is a showing on the screen, when the user is ready, he/she can start clicking the button, and count on their mind, when they think they are done, they can click on the button. time range less than 1 second can proceed to next level.</t>
+  </si>
+  <si>
+    <t>coin calculation</t>
+  </si>
+  <si>
+    <t>There is a amount given and you need to pick and drag appropiate coin that can add up to the amount ( for example, 2.5 dollar. 2 dollars, 1 dollar, 25 cents, 25 cents</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -447,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -472,8 +533,11 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1184,31 +1248,117 @@
       </c>
     </row>
     <row r="45">
-      <c r="C45" s="8"/>
+      <c r="A45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="5">
+        <v>44246.0</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="46">
-      <c r="C46" s="8"/>
+      <c r="A46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="5">
+        <v>44246.0</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="47">
-      <c r="C47" s="8"/>
+      <c r="A47" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="8">
+        <v>44246.0</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="48">
-      <c r="C48" s="8"/>
+      <c r="A48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="8">
+        <v>44246.0</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="49">
-      <c r="C49" s="8"/>
+      <c r="A49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="8">
+        <v>44246.0</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="50">
-      <c r="C50" s="8"/>
+      <c r="A50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="8">
+        <v>44249.0</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="51">
-      <c r="C51" s="8"/>
+      <c r="A51" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="8">
+        <v>44249.0</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="52">
-      <c r="C52" s="8"/>
+      <c r="A52" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="8">
+        <v>44249.0</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="53">
-      <c r="C53" s="8"/>
+      <c r="A53" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="8">
+        <v>44249.0</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="9">
+        <v>44249.0</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Game Ideas.xlsx
+++ b/Game Ideas.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="89">
   <si>
     <t>Game ideas</t>
   </si>
@@ -413,74 +413,13 @@
   <si>
     <t>give user a shape that has multiple triangle, ask user how many triangle is in the shape</t>
   </si>
-  <si>
-    <t>word counting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enter a </t>
-  </si>
-  <si>
-    <t xml:space="preserve">good habit choice </t>
-  </si>
-  <si>
-    <t>It is a 2d game that user needs to move to get the healthy good in order to proceed to the next level, have a bunch of unhealthy product and one healthy product by not telling the user which is good, which is bad. the user need to figure out themselve.</t>
-  </si>
-  <si>
-    <t>sunscreen recorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user set the condition of the day or uv index. the app will pop out notification to remind user to apply sun screen </t>
-  </si>
-  <si>
-    <t>synonyms</t>
-  </si>
-  <si>
-    <t>there are 10 cards with 5 sets of synonyms. Identify them and use line to connect them to make them disappear</t>
-  </si>
-  <si>
-    <t>Stop playing video game</t>
-  </si>
-  <si>
-    <t>a stop watch progresses the time you have stoped playing video games gradually. The first time is 1 mins, the second time is 2 mins, the third time is 5 mins and keep going</t>
-  </si>
-  <si>
-    <t>Reshipment</t>
-  </si>
-  <si>
-    <t>An app helps people in same region who needs to buy goods to help support their idols or singer from foreigh country. It decrease the cost of only person buying the goods. There are group leader from each region, everytime when a new goods is coming out, the creator can create this buying task and assign each group leader to forward the goods to the assigned area</t>
-  </si>
-  <si>
-    <t>recycling bags</t>
-  </si>
-  <si>
-    <t>A app that tells user the tips of recycling, for example having graphic to show people the object that is not recycable, recycble and organic waste, and or some common mistake that people make about certain type of object that is recycble or not</t>
-  </si>
-  <si>
-    <t>recycling items</t>
-  </si>
-  <si>
-    <t>there are graphic of garbages on the table, user need to click and drag them to the correct recycling bins in order to proceed to next level. (apple skin, mik box, battery, tree trunk ect.)</t>
-  </si>
-  <si>
-    <t>Timer</t>
-  </si>
-  <si>
-    <t>this is a app to test user about their time sensibitiliy. There is a showing on the screen, when the user is ready, he/she can start clicking the button, and count on their mind, when they think they are done, they can click on the button. time range less than 1 second can proceed to next level.</t>
-  </si>
-  <si>
-    <t>coin calculation</t>
-  </si>
-  <si>
-    <t>There is a amount given and you need to pick and drag appropiate coin that can add up to the amount ( for example, 2.5 dollar. 2 dollars, 1 dollar, 25 cents, 25 cents</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -508,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -533,11 +472,8 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1248,117 +1184,31 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" s="5">
-        <v>44246.0</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="C45" s="8"/>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" s="5">
-        <v>44246.0</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="C46" s="8"/>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B47" s="8">
-        <v>44246.0</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="C47" s="8"/>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B48" s="8">
-        <v>44246.0</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>96</v>
-      </c>
+      <c r="C48" s="8"/>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B49" s="8">
-        <v>44246.0</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>98</v>
-      </c>
+      <c r="C49" s="8"/>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" s="8">
-        <v>44249.0</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>100</v>
-      </c>
+      <c r="C50" s="8"/>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B51" s="8">
-        <v>44249.0</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>102</v>
-      </c>
+      <c r="C51" s="8"/>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B52" s="8">
-        <v>44249.0</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>104</v>
-      </c>
+      <c r="C52" s="8"/>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B53" s="8">
-        <v>44249.0</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B54" s="9">
-        <v>44249.0</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" s="9"/>
+      <c r="C53" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Game Ideas.xlsx
+++ b/Game Ideas.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="122">
   <si>
     <t>Game ideas</t>
   </si>
@@ -413,13 +413,113 @@
   <si>
     <t>give user a shape that has multiple triangle, ask user how many triangle is in the shape</t>
   </si>
+  <si>
+    <t>word counting</t>
+  </si>
+  <si>
+    <t>enter a word that countains multiple words, and ask user to identify all the word in the given string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">good habit choice </t>
+  </si>
+  <si>
+    <t>It is a 2d game that user needs to move to get the healthy good in order to proceed to the next level, have a bunch of unhealthy product and one healthy product by not telling the user which is good, which is bad. the user need to figure out themselve.</t>
+  </si>
+  <si>
+    <t>sunscreen recorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user set the condition of the day or uv index. the app will pop out notification to remind user to apply sun screen </t>
+  </si>
+  <si>
+    <t>synonyms</t>
+  </si>
+  <si>
+    <t>there are 10 cards with 5 sets of synonyms. Identify them and use line to connect them to make them disappear</t>
+  </si>
+  <si>
+    <t>Stop playing video game</t>
+  </si>
+  <si>
+    <t>a stop watch progresses the time you have stoped playing video games gradually. The first time is 1 mins, the second time is 2 mins, the third time is 5 mins and keep going</t>
+  </si>
+  <si>
+    <t>Reshipment</t>
+  </si>
+  <si>
+    <t>An app helps people in same region who needs to buy goods to help support their idols or singer from foreigh country. It decrease the cost of only person buying the goods. There are group leader from each region, everytime when a new goods is coming out, the creator can create this buying task and assign each group leader to forward the goods to the assigned area</t>
+  </si>
+  <si>
+    <t>recycling bags</t>
+  </si>
+  <si>
+    <t>A app that tells user the tips of recycling, for example having graphic to show people the object that is not recycable, recycble and organic waste, and or some common mistake that people make about certain type of object that is recycble or not</t>
+  </si>
+  <si>
+    <t>recycling items</t>
+  </si>
+  <si>
+    <t>there are graphic of garbages on the table, user need to click and drag them to the correct recycling bins in order to proceed to next level. (apple skin, mik box, battery, tree trunk ect.)</t>
+  </si>
+  <si>
+    <t>Timer</t>
+  </si>
+  <si>
+    <t>this is a app to test user about their time sensibitiliy. There is a showing on the screen, when the user is ready, he/she can start clicking the button, and count on their mind, when they think they are done, they can click on the button. time range less than 1 second can proceed to next level.</t>
+  </si>
+  <si>
+    <t>coin calculation</t>
+  </si>
+  <si>
+    <t>There is a amount given and you need to pick and drag appropiate coin that can add up to the amount ( for example, 2.5 dollar. 2 dollars, 1 dollar, 25 cents, 25 cents</t>
+  </si>
+  <si>
+    <t>hair loss</t>
+  </si>
+  <si>
+    <t>A game to protect hair that user needs to do a seires of task to increase their health in order to protect their hair from lossing, (sleep early, eat less sugar, drink more water)</t>
+  </si>
+  <si>
+    <t>firing</t>
+  </si>
+  <si>
+    <t>user is in a island that need fire to heep them warm. he/she go trough a series of task to find out how to light a fire (glass, dry straw, fire stone)</t>
+  </si>
+  <si>
+    <t>hand senitizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user need to get enough hand senitizer to senitize their hand, too much or too less will lose the game </t>
+  </si>
+  <si>
+    <t>keyboard challenge</t>
+  </si>
+  <si>
+    <t>2/24/0202</t>
+  </si>
+  <si>
+    <t>give a letter and user need to identify the letter around it on a keyboard( identify the left letter of s in a keyboard</t>
+  </si>
+  <si>
+    <t>app for watering plant</t>
+  </si>
+  <si>
+    <t>set a timer to remind watering time for each plant. the app calculate the needs of water from the most plant and set a notification for the owner to water the plant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card game </t>
+  </si>
+  <si>
+    <t>build a data game for card games for parties and when the user do not have an idea, he/she can draw ideas from the database</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -427,11 +527,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -447,14 +547,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -463,17 +560,17 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -699,13 +796,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -713,22 +810,22 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>44231.0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>44231.0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -736,274 +833,274 @@
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>44231.0</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="2">
         <v>44231.0</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="2">
         <v>44231.0</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="2">
         <v>44231.0</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="2">
         <v>44231.0</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="2">
         <v>44232.0</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="2">
         <v>44232.0</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="2">
         <v>44232.0</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="2">
         <v>44232.0</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="2">
         <v>44236.0</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="2">
         <v>44236.0</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="2">
         <v>44236.0</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="2">
         <v>44236.0</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="2">
         <v>44236.0</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="2">
         <v>44237.0</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="2">
         <v>44237.0</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="2">
         <v>44237.0</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="2">
         <v>44237.0</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="2">
         <v>44237.0</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="2">
         <v>44237.0</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="2">
         <v>44238.0</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="2">
         <v>44238.0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="2">
         <v>44238.0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="2">
         <v>44238.0</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="2">
         <v>44238.0</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1011,10 +1108,10 @@
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>44243.0</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1022,54 +1119,54 @@
       <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>44243.0</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="2">
         <v>44243.0</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="4">
         <v>44243.0</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="4">
         <v>44243.0</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="4">
         <v>44243.0</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1077,21 +1174,21 @@
       <c r="A35" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="4">
         <v>44244.0</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="2">
         <v>44244.0</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1099,54 +1196,54 @@
       <c r="A37" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>44244.0</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="2">
         <v>44244.0</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="2">
         <v>44244.0</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="2">
         <v>44245.0</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="2">
         <v>44245.0</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1154,61 +1251,210 @@
       <c r="A42" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="2">
         <v>44245.0</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="2">
         <v>44245.0</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="2">
         <v>44245.0</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="45">
-      <c r="C45" s="8"/>
+      <c r="A45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="2">
+        <v>44246.0</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="46">
-      <c r="C46" s="8"/>
+      <c r="A46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="2">
+        <v>44246.0</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="47">
-      <c r="C47" s="8"/>
+      <c r="A47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="6">
+        <v>44246.0</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="48">
-      <c r="C48" s="8"/>
+      <c r="A48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="6">
+        <v>44246.0</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="49">
-      <c r="C49" s="8"/>
+      <c r="A49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="6">
+        <v>44246.0</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="50">
-      <c r="C50" s="8"/>
+      <c r="A50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="6">
+        <v>44249.0</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="51">
-      <c r="C51" s="8"/>
+      <c r="A51" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="6">
+        <v>44249.0</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="52">
-      <c r="C52" s="8"/>
+      <c r="A52" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="6">
+        <v>44249.0</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="53">
-      <c r="C53" s="8"/>
+      <c r="A53" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="6">
+        <v>44249.0</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="7">
+        <v>44249.0</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="7">
+        <v>44250.0</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" s="7">
+        <v>44251.0</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" s="7">
+        <v>44251.0</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" s="7">
+        <v>44251.0</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" s="6">
+        <v>44251.0</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Game Ideas.xlsx
+++ b/Game Ideas.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="132">
   <si>
     <t>Game ideas</t>
   </si>
@@ -511,6 +511,36 @@
   </si>
   <si>
     <t>build a data game for card games for parties and when the user do not have an idea, he/she can draw ideas from the database</t>
+  </si>
+  <si>
+    <t>cat lover</t>
+  </si>
+  <si>
+    <t>Provide an oppurtunity for the cat lovers to share their cats photo, the cat lovers can also use the canvas function of the app to draw and share their cat</t>
+  </si>
+  <si>
+    <t>dies</t>
+  </si>
+  <si>
+    <t>a game that will allow users to guess the dice number, if number is correct, they will proceed to next level, if not, they will lose point</t>
+  </si>
+  <si>
+    <t>ice skating information</t>
+  </si>
+  <si>
+    <t>a app to track the major ice skating event, the reminder and infromation about each event, the ice skating lovers can use this app to keep track of the major event</t>
+  </si>
+  <si>
+    <t>resource website</t>
+  </si>
+  <si>
+    <t>a app that can collect useful app design resource website( graphic, software, informational, ect...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run out of electricity </t>
+  </si>
+  <si>
+    <t>A game tell people what to do after runing out of electricity. (text based game)</t>
   </si>
 </sst>
 </file>
@@ -547,7 +577,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -570,6 +600,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1456,6 +1489,61 @@
         <v>121</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" s="6">
+        <v>44252.0</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="6">
+        <v>44252.0</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="6">
+        <v>44252.0</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="6">
+        <v>44252.0</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" s="6">
+        <v>44252.0</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Game Ideas.xlsx
+++ b/Game Ideas.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="162">
   <si>
     <t>Game ideas</t>
   </si>
@@ -541,6 +541,96 @@
   </si>
   <si>
     <t>A game tell people what to do after runing out of electricity. (text based game)</t>
+  </si>
+  <si>
+    <t>name generator</t>
+  </si>
+  <si>
+    <t>a app generate non sense name for users to chose from</t>
+  </si>
+  <si>
+    <t>coffee grinder</t>
+  </si>
+  <si>
+    <t>each coffee bean required different level of fineness, you are required to grind the coffee bean to the correct size for best quality for your client</t>
+  </si>
+  <si>
+    <t>tips for saving money</t>
+  </si>
+  <si>
+    <t>a app provide tips for people who have limited money to spend (webiste to flyers, tips for saving money, no buy)</t>
+  </si>
+  <si>
+    <t>checklist</t>
+  </si>
+  <si>
+    <t>Everytime the user has done something they think it is awsome, he/she can record that event in the app</t>
+  </si>
+  <si>
+    <t>back yard plant encyclepedia</t>
+  </si>
+  <si>
+    <t>An Encyclepedia for some common backyard plant and how to take care them</t>
+  </si>
+  <si>
+    <t>battling between two</t>
+  </si>
+  <si>
+    <t>there is a 25 circles arrange in 5 * 5 postition. two players take turns to press on the circles, they can press circles in a row horizontally and virtically and can chose how many circles they can press. the person who press the last circle lose</t>
+  </si>
+  <si>
+    <t>colour matching game</t>
+  </si>
+  <si>
+    <t>game screen split into top and bottom part for two players, there are word poping up and the person who press the colour faster will earn point, the person with tie highest point wins</t>
+  </si>
+  <si>
+    <t>counting game</t>
+  </si>
+  <si>
+    <t>one person enters the multiplication question and another person enters the answer, they switch over and the person who enters the wrong answer lose</t>
+  </si>
+  <si>
+    <t>Music theory</t>
+  </si>
+  <si>
+    <t>there is a key in music sheet and user need to identify which key it is ( aim to train music beginner learning keys)</t>
+  </si>
+  <si>
+    <t>Walking distance</t>
+  </si>
+  <si>
+    <t>Set a weekly walking distance goal, and enters 3 new things that you discovered in your neibourhood while waling</t>
+  </si>
+  <si>
+    <t>record</t>
+  </si>
+  <si>
+    <t>Record storage place for any object bought from store, when not able to find it, use the search button and find. ( candle, storage room)</t>
+  </si>
+  <si>
+    <t>minimalism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set a goal to give away or dump objects that is no longer in use (first day throw three objects, tenth day throw 4 objects) </t>
+  </si>
+  <si>
+    <t>small changes</t>
+  </si>
+  <si>
+    <t>Set a big goal, medium and small goal and  break into every day progress, every day the app will remind you what need to be down</t>
+  </si>
+  <si>
+    <t>navigate notification apps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set a app to block and receive notifications from other app, when turn this function on, all notification will be viewable through the app, </t>
+  </si>
+  <si>
+    <t>give away</t>
+  </si>
+  <si>
+    <t>a app platform to post things that are not useful to user anymore and they can post to give away stuffs for local people</t>
   </si>
 </sst>
 </file>
@@ -593,17 +683,17 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1320,7 +1410,7 @@
       <c r="B45" s="2">
         <v>44246.0</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1339,7 +1429,7 @@
       <c r="A47" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="5">
         <v>44246.0</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -1350,7 +1440,7 @@
       <c r="A48" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="5">
         <v>44246.0</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -1361,7 +1451,7 @@
       <c r="A49" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="5">
         <v>44246.0</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -1372,7 +1462,7 @@
       <c r="A50" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="5">
         <v>44249.0</v>
       </c>
       <c r="C50" s="3" t="s">
@@ -1383,7 +1473,7 @@
       <c r="A51" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="5">
         <v>44249.0</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -1394,10 +1484,10 @@
       <c r="A52" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="5">
         <v>44249.0</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="3" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1405,10 +1495,10 @@
       <c r="A53" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="5">
         <v>44249.0</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="3" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1416,10 +1506,10 @@
       <c r="A54" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="5">
         <v>44249.0</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="3" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1427,10 +1517,10 @@
       <c r="A55" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="5">
         <v>44250.0</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="3" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1438,10 +1528,10 @@
       <c r="A56" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="5">
         <v>44251.0</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="3" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1449,10 +1539,10 @@
       <c r="A57" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="5">
         <v>44251.0</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="3" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1460,10 +1550,10 @@
       <c r="A58" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="3" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1471,10 +1561,10 @@
       <c r="A59" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="5">
         <v>44251.0</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="3" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1482,10 +1572,10 @@
       <c r="A60" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="5">
         <v>44251.0</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="3" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1493,21 +1583,21 @@
       <c r="A61" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B61" s="5">
         <v>44252.0</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B62" s="6">
+      <c r="B62" s="5">
         <v>44252.0</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="3" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1515,10 +1605,10 @@
       <c r="A63" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="5">
         <v>44252.0</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="3" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1526,10 +1616,10 @@
       <c r="A64" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64" s="5">
         <v>44252.0</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="3" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1537,12 +1627,183 @@
       <c r="A65" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65" s="5">
         <v>44252.0</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="3" t="s">
         <v>131</v>
       </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="5">
+        <v>44253.0</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" s="5">
+        <v>44253.0</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" s="5">
+        <v>44253.0</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" s="5">
+        <v>44253.0</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" s="5">
+        <v>44254.0</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" s="2">
+        <v>44256.0</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" s="2">
+        <v>44256.0</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" s="2">
+        <v>44256.0</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" s="2">
+        <v>44256.0</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" s="2">
+        <v>44256.0</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" s="2">
+        <v>44257.0</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" s="2">
+        <v>44257.0</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" s="2">
+        <v>44257.0</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" s="2">
+        <v>44257.0</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" s="2">
+        <v>44257.0</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" s="8"/>
+    </row>
+    <row r="82">
+      <c r="C82" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
